--- a/Data_processed/industry/metals, non-ferro.xlsx
+++ b/Data_processed/industry/metals, non-ferro.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/metals, non-ferro.xlsx
+++ b/Data_processed/industry/metals, non-ferro.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/metals, non-ferro.xlsx
+++ b/Data_processed/industry/metals, non-ferro.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.253312452141927</v>
+        <v>1.2159612</v>
       </c>
       <c r="E2" t="n">
-        <v>1.2159612</v>
+        <v>15.486373</v>
       </c>
       <c r="F2" t="n">
-        <v>15.486373</v>
+        <v>3.3904224e-05</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.91350744506325</v>
+        <v>4.813070866666667</v>
       </c>
       <c r="E3" t="n">
-        <v>4.813070866666667</v>
+        <v>71.689488</v>
       </c>
       <c r="F3" t="n">
-        <v>71.689488</v>
+        <v>0.00013420119</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1355898445981</v>
+        <v>0.7504491333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7504491333333334</v>
+        <v>11.287101</v>
       </c>
       <c r="F4" t="n">
-        <v>11.287101</v>
+        <v>2.0924513e-05</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.54014476040201</v>
+        <v>3.959920333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>3.959920333333333</v>
+        <v>59.004986</v>
       </c>
       <c r="F5" t="n">
-        <v>59.004986</v>
+        <v>0.00011041309</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10.234939505904</v>
+        <v>11.99553666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>11.99553666666667</v>
+        <v>142.93184</v>
       </c>
       <c r="F6" t="n">
-        <v>142.93184</v>
+        <v>0.0003344674</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20.3604043891</v>
+        <v>3.818</v>
       </c>
       <c r="E7" t="n">
-        <v>3.818</v>
+        <v>78.28485000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>78.28485000000001</v>
+        <v>0.00010645597</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.566303387</v>
+        <v>21.70634933333334</v>
       </c>
       <c r="E8" t="n">
-        <v>21.70634933333334</v>
+        <v>36.68254</v>
       </c>
       <c r="F8" t="n">
-        <v>36.68254</v>
+        <v>0.00060523061</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>55.31180573</v>
+        <v>37.20312466666667</v>
       </c>
       <c r="E9" t="n">
-        <v>37.20312466666667</v>
+        <v>194.53125</v>
       </c>
       <c r="F9" t="n">
-        <v>194.53125</v>
+        <v>0.0010373218</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.219829219000001</v>
+        <v>3.4506146</v>
       </c>
       <c r="E10" t="n">
-        <v>3.4506146</v>
+        <v>57.44649</v>
       </c>
       <c r="F10" t="n">
-        <v>57.44649</v>
+        <v>9.621229e-05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0990155870194</v>
+        <v>0.46758162</v>
       </c>
       <c r="E11" t="n">
-        <v>0.46758162</v>
+        <v>8.369771399999999</v>
       </c>
       <c r="F11" t="n">
-        <v>8.369771399999999</v>
+        <v>1.3037416e-05</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.58116883081864</v>
+        <v>2.496044</v>
       </c>
       <c r="E12" t="n">
-        <v>2.496044</v>
+        <v>41.74194</v>
       </c>
       <c r="F12" t="n">
-        <v>41.74194</v>
+        <v>6.959633099999999e-05</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>203.36902102</v>
+        <v>170.015</v>
       </c>
       <c r="E13" t="n">
-        <v>170.015</v>
+        <v>139.48</v>
       </c>
       <c r="F13" t="n">
-        <v>139.48</v>
+        <v>0.0047404693</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>57692.61276999999</v>
+        <v>47790.3</v>
       </c>
       <c r="E14" t="n">
-        <v>47790.3</v>
+        <v>92660</v>
       </c>
       <c r="F14" t="n">
-        <v>92660</v>
+        <v>1.3325204</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>153.2340589525</v>
+        <v>750.6249333333334</v>
       </c>
       <c r="E15" t="n">
-        <v>750.6249333333334</v>
+        <v>9903.741400000001</v>
       </c>
       <c r="F15" t="n">
-        <v>9903.741400000001</v>
+        <v>0.020929415</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43883.1615430362</v>
+        <v>36500.778</v>
       </c>
       <c r="E16" t="n">
-        <v>36500.778</v>
+        <v>72798.49800000001</v>
       </c>
       <c r="F16" t="n">
-        <v>72798.49800000001</v>
+        <v>1.0177385</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>769.41587623</v>
+        <v>117.52</v>
       </c>
       <c r="E17" t="n">
-        <v>117.52</v>
+        <v>389.7</v>
       </c>
       <c r="F17" t="n">
-        <v>389.7</v>
+        <v>0.0032767694</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.388008457256</v>
+        <v>1.892</v>
       </c>
       <c r="E18" t="n">
-        <v>1.892</v>
+        <v>30.966238</v>
       </c>
       <c r="F18" t="n">
-        <v>30.966238</v>
+        <v>5.275398e-05</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.1068295165055</v>
+        <v>0.6074231533333334</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6074231533333334</v>
+        <v>9.0839967</v>
       </c>
       <c r="F19" t="n">
-        <v>9.0839967</v>
+        <v>1.6936569e-05</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.56306530731543</v>
+        <v>0.8643385333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8643385333333333</v>
+        <v>13.460445</v>
       </c>
       <c r="F20" t="n">
-        <v>13.460445</v>
+        <v>2.4100051e-05</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28.991091423</v>
+        <v>79.29000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>79.29000000000001</v>
+        <v>95.53</v>
       </c>
       <c r="F21" t="n">
-        <v>95.53</v>
+        <v>0.0022108156</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4.581313556910001</v>
+        <v>26.47878733333334</v>
       </c>
       <c r="E22" t="n">
-        <v>26.47878733333334</v>
+        <v>392.3316</v>
       </c>
       <c r="F22" t="n">
-        <v>392.3316</v>
+        <v>0.00073829885</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.0876546276905</v>
+        <v>0.4933606866666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4933606866666667</v>
+        <v>7.3939529</v>
       </c>
       <c r="F23" t="n">
-        <v>7.3939529</v>
+        <v>1.3756205e-05</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4.266757405251138</v>
+        <v>24.65980733333333</v>
       </c>
       <c r="E24" t="n">
-        <v>24.65980733333333</v>
+        <v>365.38597</v>
       </c>
       <c r="F24" t="n">
-        <v>365.38597</v>
+        <v>0.00068758087</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3.026353053</v>
+        <v>4.9818182</v>
       </c>
       <c r="E25" t="n">
-        <v>4.9818182</v>
+        <v>7.1424762</v>
       </c>
       <c r="F25" t="n">
-        <v>7.1424762</v>
+        <v>0.00013890631</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3598.9589538841</v>
+        <v>11.55149</v>
       </c>
       <c r="E26" t="n">
-        <v>11.55149</v>
+        <v>0.972</v>
       </c>
       <c r="F26" t="n">
-        <v>0.972</v>
+        <v>0.00032208619</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>62.21865099204</v>
+        <v>15.51872733333333</v>
       </c>
       <c r="E27" t="n">
-        <v>15.51872733333333</v>
+        <v>42.572344</v>
       </c>
       <c r="F27" t="n">
-        <v>42.572344</v>
+        <v>0.00043270329</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30.12320064656454</v>
+        <v>13.095508</v>
       </c>
       <c r="E28" t="n">
-        <v>13.095508</v>
+        <v>251.41399</v>
       </c>
       <c r="F28" t="n">
-        <v>251.41399</v>
+        <v>0.00036513752</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.09587243706750001</v>
+        <v>0.5422446000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5422446000000001</v>
+        <v>8.118257399999999</v>
       </c>
       <c r="F29" t="n">
-        <v>8.118257399999999</v>
+        <v>1.5119218e-05</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>25.31882851538459</v>
+        <v>11.086986</v>
       </c>
       <c r="E30" t="n">
-        <v>11.086986</v>
+        <v>212.48668</v>
       </c>
       <c r="F30" t="n">
-        <v>212.48668</v>
+        <v>0.00030913459</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>29749.95823097607</v>
+        <v>23700</v>
       </c>
       <c r="E31" t="n">
-        <v>23700</v>
+        <v>363300</v>
       </c>
       <c r="F31" t="n">
-        <v>363300</v>
+        <v>0.66081889</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>63.59590930752</v>
+        <v>311.52784</v>
       </c>
       <c r="E32" t="n">
-        <v>311.52784</v>
+        <v>4110.2966</v>
       </c>
       <c r="F32" t="n">
-        <v>4110.2966</v>
+        <v>0.008686222800000001</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>19953.45885250704</v>
+        <v>15981.804</v>
       </c>
       <c r="E33" t="n">
-        <v>15981.804</v>
+        <v>244767.4</v>
       </c>
       <c r="F33" t="n">
-        <v>244767.4</v>
+        <v>0.44561511</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>23667.79225271354</v>
+        <v>33300</v>
       </c>
       <c r="E34" t="n">
-        <v>33300</v>
+        <v>465150</v>
       </c>
       <c r="F34" t="n">
-        <v>465150</v>
+        <v>0.92849236</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>224.5671577126</v>
+        <v>1100.0538</v>
       </c>
       <c r="E35" t="n">
-        <v>1100.0538</v>
+        <v>14514.104</v>
       </c>
       <c r="F35" t="n">
-        <v>14514.104</v>
+        <v>0.030672419</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>17806.9859008204</v>
+        <v>25250.01333333333</v>
       </c>
       <c r="E36" t="n">
-        <v>25250.01333333333</v>
+        <v>352491.03</v>
       </c>
       <c r="F36" t="n">
-        <v>352491.03</v>
+        <v>0.70403737</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>19366.90757090184</v>
+        <v>34900</v>
       </c>
       <c r="E37" t="n">
-        <v>34900</v>
+        <v>481950</v>
       </c>
       <c r="F37" t="n">
-        <v>481950</v>
+        <v>0.9731046</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>634.0719749887</v>
+        <v>3106.034266666667</v>
       </c>
       <c r="E38" t="n">
-        <v>3106.034266666667</v>
+        <v>40980.999</v>
       </c>
       <c r="F38" t="n">
-        <v>40980.999</v>
+        <v>0.086604477</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>12623.0868326011</v>
+        <v>23454.17266666667</v>
       </c>
       <c r="E39" t="n">
-        <v>23454.17266666667</v>
+        <v>323201.16</v>
       </c>
       <c r="F39" t="n">
-        <v>323201.16</v>
+        <v>0.65396456</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.078127951089</v>
+        <v>5.458457933333333</v>
       </c>
       <c r="E40" t="n">
-        <v>5.458457933333333</v>
+        <v>57.658152</v>
       </c>
       <c r="F40" t="n">
-        <v>57.658152</v>
+        <v>0.00015219629</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>951.0094313000001</v>
+        <v>449.3869</v>
       </c>
       <c r="E41" t="n">
-        <v>449.3869</v>
+        <v>801.26</v>
       </c>
       <c r="F41" t="n">
-        <v>801.26</v>
+        <v>0.012530099</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3.342398147406</v>
+        <v>14.373962</v>
       </c>
       <c r="E42" t="n">
-        <v>14.373962</v>
+        <v>171.27177</v>
       </c>
       <c r="F42" t="n">
-        <v>171.27177</v>
+        <v>0.00040078421</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>770.9526959626933</v>
+        <v>366.73444</v>
       </c>
       <c r="E43" t="n">
-        <v>366.73444</v>
+        <v>681.56224</v>
       </c>
       <c r="F43" t="n">
-        <v>681.56224</v>
+        <v>0.010225529</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1789,13 +1834,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>646.11710958</v>
+        <v>144.5000533333333</v>
       </c>
       <c r="E44" t="n">
-        <v>144.5000533333333</v>
+        <v>109.92602</v>
       </c>
       <c r="F44" t="n">
-        <v>109.92602</v>
+        <v>0.0040290449</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1820,13 +1865,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>125.287154771823</v>
+        <v>44.537884</v>
       </c>
       <c r="E45" t="n">
-        <v>44.537884</v>
+        <v>530.6875199999999</v>
       </c>
       <c r="F45" t="n">
-        <v>530.6875199999999</v>
+        <v>0.0012418344</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>27.106379875</v>
+        <v>10.14680666666667</v>
       </c>
       <c r="E46" t="n">
-        <v>10.14680666666667</v>
+        <v>15.32245</v>
       </c>
       <c r="F46" t="n">
-        <v>15.32245</v>
+        <v>0.00028291988</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,13 +1927,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>20.74629809492</v>
+        <v>28.804014</v>
       </c>
       <c r="E47" t="n">
-        <v>28.804014</v>
+        <v>442.65967</v>
       </c>
       <c r="F47" t="n">
-        <v>442.65967</v>
+        <v>0.00080313234</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3.7332868151486</v>
+        <v>19.02690333333334</v>
       </c>
       <c r="E48" t="n">
-        <v>19.02690333333334</v>
+        <v>343.49938</v>
       </c>
       <c r="F48" t="n">
-        <v>343.49938</v>
+        <v>0.00053052056</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,13 +1989,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>20.57616886223281</v>
+        <v>28.70624266666667</v>
       </c>
       <c r="E49" t="n">
-        <v>28.70624266666667</v>
+        <v>441.66806</v>
       </c>
       <c r="F49" t="n">
-        <v>441.66806</v>
+        <v>0.00080040622</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1975,13 +2020,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>25.469320179384</v>
+        <v>1.683935266666667</v>
       </c>
       <c r="E50" t="n">
-        <v>1.683935266666667</v>
+        <v>32.958787</v>
       </c>
       <c r="F50" t="n">
-        <v>32.958787</v>
+        <v>4.6952584e-05</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2006,13 +2051,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>35.01780657287</v>
+        <v>17.105734</v>
       </c>
       <c r="E51" t="n">
-        <v>17.105734</v>
+        <v>314.69843</v>
       </c>
       <c r="F51" t="n">
-        <v>314.69843</v>
+        <v>0.00047695324</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2037,13 +2082,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>34.66762848601</v>
+        <v>16.93467666666666</v>
       </c>
       <c r="E52" t="n">
-        <v>16.93467666666666</v>
+        <v>311.55145</v>
       </c>
       <c r="F52" t="n">
-        <v>311.55145</v>
+        <v>0.00047218371</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2068,13 +2113,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2.5304043891</v>
+        <v>3.818</v>
       </c>
       <c r="E53" t="n">
-        <v>3.818</v>
+        <v>78.28485000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>78.28485000000001</v>
+        <v>0.00010645597</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2099,13 +2144,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.1624362887166</v>
+        <v>0.9325907333333333</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9325907333333333</v>
+        <v>13.918732</v>
       </c>
       <c r="F54" t="n">
-        <v>13.918732</v>
+        <v>2.6003105e-05</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2130,13 +2175,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2.19888885502563</v>
+        <v>3.414042733333333</v>
       </c>
       <c r="E55" t="n">
-        <v>3.414042733333333</v>
+        <v>69.27359300000001</v>
       </c>
       <c r="F55" t="n">
-        <v>69.27359300000001</v>
+        <v>9.519257000000001e-05</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2161,13 +2206,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>43.802062724</v>
+        <v>2.87</v>
       </c>
       <c r="E56" t="n">
-        <v>2.87</v>
+        <v>56.21302</v>
       </c>
       <c r="F56" t="n">
-        <v>56.21302</v>
+        <v>8.0023215e-05</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2192,13 +2237,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.007178782767</v>
+        <v>0.036623172</v>
       </c>
       <c r="E57" t="n">
-        <v>0.036623172</v>
+        <v>0.66124081</v>
       </c>
       <c r="F57" t="n">
-        <v>0.66124081</v>
+        <v>1.0211512e-06</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2223,13 +2268,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2.145829219</v>
+        <v>3.8906146</v>
       </c>
       <c r="E58" t="n">
-        <v>3.8906146</v>
+        <v>57.44649</v>
       </c>
       <c r="F58" t="n">
-        <v>57.44649</v>
+        <v>0.00010848066</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2254,13 +2299,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.7695823761384259</v>
+        <v>3.132987933333333</v>
       </c>
       <c r="E59" t="n">
-        <v>3.132987933333333</v>
+        <v>32.252174</v>
       </c>
       <c r="F59" t="n">
-        <v>32.252174</v>
+        <v>8.735601699999999e-05</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2285,13 +2330,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>376.1284832722048</v>
+        <v>558.68876</v>
       </c>
       <c r="E60" t="n">
-        <v>558.68876</v>
+        <v>8378.7135</v>
       </c>
       <c r="F60" t="n">
-        <v>8378.7135</v>
+        <v>0.015577725</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2316,13 +2361,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>26.168008457256</v>
+        <v>1.892</v>
       </c>
       <c r="E61" t="n">
-        <v>1.892</v>
+        <v>30.966238</v>
       </c>
       <c r="F61" t="n">
-        <v>30.966238</v>
+        <v>5.275398e-05</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2347,13 +2392,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11.113781268181</v>
+        <v>50.03605333333334</v>
       </c>
       <c r="E62" t="n">
-        <v>50.03605333333334</v>
+        <v>324.76761</v>
       </c>
       <c r="F62" t="n">
-        <v>324.76761</v>
+        <v>0.0013951379</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2378,13 +2423,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>344.05809497682</v>
+        <v>310.2294</v>
       </c>
       <c r="E63" t="n">
-        <v>310.2294</v>
+        <v>3696.5131</v>
       </c>
       <c r="F63" t="n">
-        <v>3696.5131</v>
+        <v>0.008650018799999999</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2409,13 +2454,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>40.36254336221999</v>
+        <v>0.18</v>
       </c>
       <c r="E64" t="n">
-        <v>0.18</v>
+        <v>3.85378</v>
       </c>
       <c r="F64" t="n">
-        <v>3.85378</v>
+        <v>5.0188776e-06</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2440,13 +2485,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5925.2096620391</v>
+        <v>798.9441333333334</v>
       </c>
       <c r="E65" t="n">
-        <v>798.9441333333334</v>
+        <v>9519.7533</v>
       </c>
       <c r="F65" t="n">
-        <v>9519.7533</v>
+        <v>0.022276682</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2471,13 +2516,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.4884694526189</v>
+        <v>4.817188666666667</v>
       </c>
       <c r="E66" t="n">
-        <v>4.817188666666667</v>
+        <v>51.381532</v>
       </c>
       <c r="F66" t="n">
-        <v>51.381532</v>
+        <v>0.000134316</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2502,13 +2547,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3453.3950542</v>
+        <v>357.8199266666667</v>
       </c>
       <c r="E67" t="n">
-        <v>357.8199266666667</v>
+        <v>824.52574</v>
       </c>
       <c r="F67" t="n">
-        <v>824.52574</v>
+        <v>0.009976969</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2533,13 +2578,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>153.77352931557</v>
+        <v>111.2689466666667</v>
       </c>
       <c r="E68" t="n">
-        <v>111.2689466666667</v>
+        <v>1325.816</v>
       </c>
       <c r="F68" t="n">
-        <v>1325.816</v>
+        <v>0.0031024734</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2564,13 +2609,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>118.6095485911826</v>
+        <v>25.95697333333333</v>
       </c>
       <c r="E69" t="n">
-        <v>25.95697333333333</v>
+        <v>309.70939</v>
       </c>
       <c r="F69" t="n">
-        <v>309.70939</v>
+        <v>0.00072374928</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2595,13 +2640,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1306.868302143219</v>
+        <v>121.14674</v>
       </c>
       <c r="E70" t="n">
-        <v>121.14674</v>
+        <v>1443.9395</v>
       </c>
       <c r="F70" t="n">
-        <v>1443.9395</v>
+        <v>0.0033778925</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2626,13 +2671,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>214.0143605466089</v>
+        <v>98.81022</v>
       </c>
       <c r="E71" t="n">
-        <v>98.81022</v>
+        <v>1177.7905</v>
       </c>
       <c r="F71" t="n">
-        <v>1177.7905</v>
+        <v>0.0027550912</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2657,13 +2702,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1749.650560976349</v>
+        <v>801.5832</v>
       </c>
       <c r="E72" t="n">
-        <v>801.5832</v>
+        <v>9551.6248</v>
       </c>
       <c r="F72" t="n">
-        <v>9551.6248</v>
+        <v>0.022350267</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2688,13 +2733,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>67.0378166326189</v>
+        <v>94.67383333333333</v>
       </c>
       <c r="E73" t="n">
-        <v>94.67383333333333</v>
+        <v>1128.5037</v>
       </c>
       <c r="F73" t="n">
-        <v>1128.5037</v>
+        <v>0.0026397576</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2719,13 +2764,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>119.6088440580469</v>
+        <v>22.39038</v>
       </c>
       <c r="E74" t="n">
-        <v>22.39038</v>
+        <v>267.21616</v>
       </c>
       <c r="F74" t="n">
-        <v>267.21616</v>
+        <v>0.00062430321</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2750,13 +2795,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>130.0952107816898</v>
+        <v>26.580362</v>
       </c>
       <c r="E75" t="n">
-        <v>26.580362</v>
+        <v>317.13872</v>
       </c>
       <c r="F75" t="n">
-        <v>317.13872</v>
+        <v>0.00074113102</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2781,13 +2826,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>222.6809792574199</v>
+        <v>35.73024466666666</v>
       </c>
       <c r="E76" t="n">
-        <v>35.73024466666666</v>
+        <v>426.16622</v>
       </c>
       <c r="F76" t="n">
-        <v>426.16622</v>
+        <v>0.0009962540199999999</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2812,13 +2857,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>110.5067557218329</v>
+        <v>39.039358</v>
       </c>
       <c r="E77" t="n">
-        <v>39.039358</v>
+        <v>465.59569</v>
       </c>
       <c r="F77" t="n">
-        <v>465.59569</v>
+        <v>0.0010885209</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2843,13 +2888,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>146.8764391491989</v>
+        <v>120.11264</v>
       </c>
       <c r="E78" t="n">
-        <v>120.11264</v>
+        <v>1431.6178</v>
       </c>
       <c r="F78" t="n">
-        <v>1431.6178</v>
+        <v>0.0033490591</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2874,13 +2919,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>3540.310610558824</v>
+        <v>8.870582666666667</v>
       </c>
       <c r="E79" t="n">
-        <v>8.870582666666667</v>
+        <v>106.12212</v>
       </c>
       <c r="F79" t="n">
-        <v>106.12212</v>
+        <v>0.00024733539</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2905,13 +2950,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1577.813182938349</v>
+        <v>602.0023066666668</v>
       </c>
       <c r="E80" t="n">
-        <v>602.0023066666668</v>
+        <v>7173.5347</v>
       </c>
       <c r="F80" t="n">
-        <v>7173.5347</v>
+        <v>0.016785422</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2936,13 +2981,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>125.3565171653289</v>
+        <v>253.51128</v>
       </c>
       <c r="E81" t="n">
-        <v>253.51128</v>
+        <v>3021.1184</v>
       </c>
       <c r="F81" t="n">
-        <v>3021.1184</v>
+        <v>0.0070685672</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2967,13 +3012,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>116.1718252021289</v>
+        <v>30.663164</v>
       </c>
       <c r="E82" t="n">
-        <v>30.663164</v>
+        <v>365.78984</v>
       </c>
       <c r="F82" t="n">
-        <v>365.78984</v>
+        <v>0.00085497038</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2998,13 +3043,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2.12703498197042</v>
+        <v>7.796</v>
       </c>
       <c r="E83" t="n">
-        <v>7.796</v>
+        <v>79.677098</v>
       </c>
       <c r="F83" t="n">
-        <v>79.677098</v>
+        <v>0.00021737316</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3029,13 +3074,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2.25652053098485</v>
+        <v>7.967754</v>
       </c>
       <c r="E84" t="n">
-        <v>7.967754</v>
+        <v>83.925865</v>
       </c>
       <c r="F84" t="n">
-        <v>83.925865</v>
+        <v>0.00022216212</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3060,13 +3105,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2.27986986080544</v>
+        <v>8.104398</v>
       </c>
       <c r="E85" t="n">
-        <v>8.104398</v>
+        <v>86.385279</v>
       </c>
       <c r="F85" t="n">
-        <v>86.385279</v>
+        <v>0.00022597213</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3091,13 +3136,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2.35418720701657</v>
+        <v>8.081428666666667</v>
       </c>
       <c r="E86" t="n">
-        <v>8.081428666666667</v>
+        <v>86.086044</v>
       </c>
       <c r="F86" t="n">
-        <v>86.086044</v>
+        <v>0.00022533168</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3122,13 +3167,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2.2186571844824</v>
+        <v>7.943595333333334</v>
       </c>
       <c r="E87" t="n">
-        <v>7.943595333333334</v>
+        <v>82.889989</v>
       </c>
       <c r="F87" t="n">
-        <v>82.889989</v>
+        <v>0.00022148851</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3153,13 +3198,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2.19979343207207</v>
+        <v>8.270161999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>8.270161999999999</v>
+        <v>87.06108999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>87.06108999999999</v>
+        <v>0.00023059407</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3184,13 +3229,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2.189823848821</v>
+        <v>8.404252666666668</v>
       </c>
       <c r="E89" t="n">
-        <v>8.404252666666668</v>
+        <v>90.424835</v>
       </c>
       <c r="F89" t="n">
-        <v>90.424835</v>
+        <v>0.00023433286</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3215,13 +3260,13 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2.27828100813697</v>
+        <v>8.849138666666667</v>
       </c>
       <c r="E90" t="n">
-        <v>8.849138666666667</v>
+        <v>96.770762</v>
       </c>
       <c r="F90" t="n">
-        <v>96.770762</v>
+        <v>0.00024673747</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3246,13 +3291,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2.18469407506916</v>
+        <v>8.163238666666668</v>
       </c>
       <c r="E91" t="n">
-        <v>8.163238666666668</v>
+        <v>85.407134</v>
       </c>
       <c r="F91" t="n">
-        <v>85.407134</v>
+        <v>0.00022761275</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3277,13 +3322,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2.19089219682238</v>
+        <v>8.186344</v>
       </c>
       <c r="E92" t="n">
-        <v>8.186344</v>
+        <v>85.764122</v>
       </c>
       <c r="F92" t="n">
-        <v>85.764122</v>
+        <v>0.000228257</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3308,13 +3353,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2.18738947025626</v>
+        <v>8.073382666666667</v>
       </c>
       <c r="E93" t="n">
-        <v>8.073382666666667</v>
+        <v>83.478655</v>
       </c>
       <c r="F93" t="n">
-        <v>83.478655</v>
+        <v>0.00022510732</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3339,13 +3384,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2.21058526684048</v>
+        <v>8.236392</v>
       </c>
       <c r="E94" t="n">
-        <v>8.236392</v>
+        <v>86.190674</v>
       </c>
       <c r="F94" t="n">
-        <v>86.190674</v>
+        <v>0.00022965247</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3370,13 +3415,13 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2.19429386604233</v>
+        <v>8.165737333333334</v>
       </c>
       <c r="E95" t="n">
-        <v>8.165737333333334</v>
+        <v>85.385908</v>
       </c>
       <c r="F95" t="n">
-        <v>85.385908</v>
+        <v>0.00022768243</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3401,13 +3446,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2.28369531833046</v>
+        <v>8.189875333333335</v>
       </c>
       <c r="E96" t="n">
-        <v>8.189875333333335</v>
+        <v>88.97206199999999</v>
       </c>
       <c r="F96" t="n">
-        <v>88.97206199999999</v>
+        <v>0.00022835546</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3432,13 +3477,13 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2.24545380086484</v>
+        <v>7.875716000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>7.875716000000001</v>
+        <v>82.86619399999999</v>
       </c>
       <c r="F97" t="n">
-        <v>82.86619399999999</v>
+        <v>0.00021959585</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3463,13 +3508,13 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2.23908990805418</v>
+        <v>8.562822000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>8.562822000000001</v>
+        <v>92.26768</v>
       </c>
       <c r="F98" t="n">
-        <v>92.26768</v>
+        <v>0.0002387542</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3494,13 +3539,13 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2.32292817501164</v>
+        <v>8.737582666666668</v>
       </c>
       <c r="E99" t="n">
-        <v>8.737582666666668</v>
+        <v>96.807237</v>
       </c>
       <c r="F99" t="n">
-        <v>96.807237</v>
+        <v>0.000243627</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3525,13 +3570,13 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2.17503428367854</v>
+        <v>7.766506</v>
       </c>
       <c r="E100" t="n">
-        <v>7.766506</v>
+        <v>81.080848</v>
       </c>
       <c r="F100" t="n">
-        <v>81.080848</v>
+        <v>0.0002165508</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3556,13 +3601,13 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2.18385926129996</v>
+        <v>7.767872666666666</v>
       </c>
       <c r="E101" t="n">
-        <v>7.767872666666666</v>
+        <v>81.37616199999999</v>
       </c>
       <c r="F101" t="n">
-        <v>81.37616199999999</v>
+        <v>0.0002165889</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3587,13 +3632,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2.18000846787926</v>
+        <v>7.968067333333333</v>
       </c>
       <c r="E102" t="n">
-        <v>7.968067333333333</v>
+        <v>83.306462</v>
       </c>
       <c r="F102" t="n">
-        <v>83.306462</v>
+        <v>0.00022217087</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3618,13 +3663,13 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2.21452000252885</v>
+        <v>7.683113333333333</v>
       </c>
       <c r="E103" t="n">
-        <v>7.683113333333333</v>
+        <v>81.015131</v>
       </c>
       <c r="F103" t="n">
-        <v>81.015131</v>
+        <v>0.00021422559</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3649,13 +3694,13 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5.251505203990001</v>
+        <v>3.5209</v>
       </c>
       <c r="E104" t="n">
-        <v>3.5209</v>
+        <v>57.261</v>
       </c>
       <c r="F104" t="n">
-        <v>57.261</v>
+        <v>9.817203399999999e-05</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3680,13 +3725,13 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>4.985190742509999</v>
+        <v>2.6838</v>
       </c>
       <c r="E105" t="n">
-        <v>2.6838</v>
+        <v>46.688</v>
       </c>
       <c r="F105" t="n">
-        <v>46.688</v>
+        <v>7.4831465e-05</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3711,13 +3756,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>5.2655851198</v>
+        <v>3.8207</v>
       </c>
       <c r="E106" t="n">
-        <v>3.8207</v>
+        <v>70.414</v>
       </c>
       <c r="F106" t="n">
-        <v>70.414</v>
+        <v>0.00010653125</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3742,13 +3787,13 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>3.58116883081864</v>
+        <v>2.496044</v>
       </c>
       <c r="E107" t="n">
-        <v>2.496044</v>
+        <v>41.74194</v>
       </c>
       <c r="F107" t="n">
-        <v>41.74194</v>
+        <v>6.959633099999999e-05</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3773,13 +3818,13 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4.38088389780554</v>
+        <v>3.0338722</v>
       </c>
       <c r="E108" t="n">
-        <v>3.0338722</v>
+        <v>44.958568</v>
       </c>
       <c r="F108" t="n">
-        <v>44.958568</v>
+        <v>8.4592406e-05</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3804,13 +3849,13 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>3.7010809580104</v>
+        <v>3.039791666666666</v>
       </c>
       <c r="E109" t="n">
-        <v>3.039791666666666</v>
+        <v>47.556399</v>
       </c>
       <c r="F109" t="n">
-        <v>47.556399</v>
+        <v>8.4757458e-05</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3835,13 +3880,13 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>5.73544382306129</v>
+        <v>3.541340933333333</v>
       </c>
       <c r="E110" t="n">
-        <v>3.541340933333333</v>
+        <v>60.877152</v>
       </c>
       <c r="F110" t="n">
-        <v>60.877152</v>
+        <v>9.874198100000001e-05</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3866,13 +3911,13 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>7.2462540033995</v>
+        <v>4.397107</v>
       </c>
       <c r="E111" t="n">
-        <v>4.397107</v>
+        <v>80.51738899999999</v>
       </c>
       <c r="F111" t="n">
-        <v>80.51738899999999</v>
+        <v>0.00012260301</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3897,13 +3942,13 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13.15397853366398</v>
+        <v>6.472074733333334</v>
       </c>
       <c r="E112" t="n">
-        <v>6.472074733333334</v>
+        <v>118.96978</v>
       </c>
       <c r="F112" t="n">
-        <v>118.96978</v>
+        <v>0.00018045862</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3928,13 +3973,13 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>5.182539123770411</v>
+        <v>3.177242733333334</v>
       </c>
       <c r="E113" t="n">
-        <v>3.177242733333334</v>
+        <v>42.465158</v>
       </c>
       <c r="F113" t="n">
-        <v>42.465158</v>
+        <v>8.858995900000001e-05</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3959,13 +4004,13 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>5.491948068563801</v>
+        <v>3.279198733333333</v>
       </c>
       <c r="E114" t="n">
-        <v>3.279198733333333</v>
+        <v>42.163446</v>
       </c>
       <c r="F114" t="n">
-        <v>42.163446</v>
+        <v>9.1432761e-05</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3990,13 +4035,13 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3.40258913756396</v>
+        <v>2.804837533333334</v>
       </c>
       <c r="E115" t="n">
-        <v>2.804837533333334</v>
+        <v>48.406753</v>
       </c>
       <c r="F115" t="n">
-        <v>48.406753</v>
+        <v>7.8206313e-05</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4021,13 +4066,13 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3.195247198433881</v>
+        <v>2.942537333333334</v>
       </c>
       <c r="E116" t="n">
-        <v>2.942537333333334</v>
+        <v>52.536501</v>
       </c>
       <c r="F116" t="n">
-        <v>52.536501</v>
+        <v>8.204574899999999e-05</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4052,13 +4097,13 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3.09848763004575</v>
+        <v>3.006797266666667</v>
       </c>
       <c r="E117" t="n">
-        <v>3.006797266666667</v>
+        <v>54.463717</v>
       </c>
       <c r="F117" t="n">
-        <v>54.463717</v>
+        <v>8.3837485e-05</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4083,13 +4128,13 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3.05701914428376</v>
+        <v>3.0343372</v>
       </c>
       <c r="E118" t="n">
-        <v>3.0343372</v>
+        <v>55.289667</v>
       </c>
       <c r="F118" t="n">
-        <v>55.289667</v>
+        <v>8.4605372e-05</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4114,13 +4159,13 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3.03090033992849</v>
+        <v>3.009789866666667</v>
       </c>
       <c r="E119" t="n">
-        <v>3.009789866666667</v>
+        <v>54.773674</v>
       </c>
       <c r="F119" t="n">
-        <v>54.773674</v>
+        <v>8.3920928e-05</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4145,13 +4190,13 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>3.37466895874926</v>
+        <v>3.197522</v>
       </c>
       <c r="E120" t="n">
-        <v>3.197522</v>
+        <v>47.537062</v>
       </c>
       <c r="F120" t="n">
-        <v>47.537062</v>
+        <v>8.9155397e-05</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4176,13 +4221,13 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>4.52531580037776</v>
+        <v>3.670218133333333</v>
       </c>
       <c r="E121" t="n">
-        <v>3.670218133333333</v>
+        <v>56.661292</v>
       </c>
       <c r="F121" t="n">
-        <v>56.661292</v>
+        <v>0.00010233542</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4207,13 +4252,13 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>5.73182635734336</v>
+        <v>3.563410333333333</v>
       </c>
       <c r="E122" t="n">
-        <v>3.563410333333333</v>
+        <v>60.70187</v>
       </c>
       <c r="F122" t="n">
-        <v>60.70187</v>
+        <v>9.935733499999999e-05</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4238,13 +4283,13 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>5.96245230746629</v>
+        <v>3.432213933333333</v>
       </c>
       <c r="E123" t="n">
-        <v>3.432213933333333</v>
+        <v>41.635056</v>
       </c>
       <c r="F123" t="n">
-        <v>41.635056</v>
+        <v>9.5699232e-05</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4269,13 +4314,13 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>6.432956453358679</v>
+        <v>3.5852292</v>
       </c>
       <c r="E124" t="n">
-        <v>3.5852292</v>
+        <v>41.106667</v>
       </c>
       <c r="F124" t="n">
-        <v>41.106667</v>
+        <v>9.996570300000001e-05</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4300,13 +4345,13 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>4.65741967005503</v>
+        <v>3.0653736</v>
       </c>
       <c r="E125" t="n">
-        <v>3.0653736</v>
+        <v>43.793828</v>
       </c>
       <c r="F125" t="n">
-        <v>43.793828</v>
+        <v>8.5470749e-05</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4331,13 +4376,13 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3.40258913756396</v>
+        <v>2.804837533333334</v>
       </c>
       <c r="E126" t="n">
-        <v>2.804837533333334</v>
+        <v>48.406753</v>
       </c>
       <c r="F126" t="n">
-        <v>48.406753</v>
+        <v>7.8206313e-05</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4362,13 +4407,13 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3.07331945821482</v>
+        <v>3.024236333333334</v>
       </c>
       <c r="E127" t="n">
-        <v>3.024236333333334</v>
+        <v>54.491758</v>
       </c>
       <c r="F127" t="n">
-        <v>54.491758</v>
+        <v>8.432373399999999e-05</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4393,13 +4438,13 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3.05701914428376</v>
+        <v>3.0343372</v>
       </c>
       <c r="E128" t="n">
-        <v>3.0343372</v>
+        <v>55.289667</v>
       </c>
       <c r="F128" t="n">
-        <v>55.289667</v>
+        <v>8.4605372e-05</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4424,13 +4469,13 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>4.12824433267149</v>
+        <v>23.40999866666667</v>
       </c>
       <c r="E129" t="n">
-        <v>23.40999866666667</v>
+        <v>343.21701</v>
       </c>
       <c r="F129" t="n">
-        <v>343.21701</v>
+        <v>0.00065273288</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4455,13 +4500,13 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>4.328572107231976</v>
+        <v>24.87992133333334</v>
       </c>
       <c r="E130" t="n">
-        <v>24.87992133333334</v>
+        <v>367.84722</v>
       </c>
       <c r="F130" t="n">
-        <v>367.84722</v>
+        <v>0.00069371823</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4486,13 +4531,13 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4.15179717299064</v>
+        <v>23.447178</v>
       </c>
       <c r="E131" t="n">
-        <v>23.447178</v>
+        <v>345.762</v>
       </c>
       <c r="F131" t="n">
-        <v>345.762</v>
+        <v>0.00065376954</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4517,13 +4562,13 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>4.16475043976285</v>
+        <v>23.660106</v>
       </c>
       <c r="E132" t="n">
-        <v>23.660106</v>
+        <v>347.89377</v>
       </c>
       <c r="F132" t="n">
-        <v>347.89377</v>
+        <v>0.00065970654</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4548,13 +4593,13 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>4.10828416974718</v>
+        <v>23.15372133333333</v>
       </c>
       <c r="E133" t="n">
-        <v>23.15372133333333</v>
+        <v>340.15185</v>
       </c>
       <c r="F133" t="n">
-        <v>340.15185</v>
+        <v>0.00064558719</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4579,13 +4624,13 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>4.13479431580734</v>
+        <v>23.42401266666667</v>
       </c>
       <c r="E134" t="n">
-        <v>23.42401266666667</v>
+        <v>343.89384</v>
       </c>
       <c r="F134" t="n">
-        <v>343.89384</v>
+        <v>0.00065312363</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4610,13 +4655,13 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>4.256105785529357</v>
+        <v>24.35832933333333</v>
       </c>
       <c r="E135" t="n">
-        <v>24.35832933333333</v>
+        <v>359.89726</v>
       </c>
       <c r="F135" t="n">
-        <v>359.89726</v>
+        <v>0.00067917485</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4641,13 +4686,13 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>4.230025678993008</v>
+        <v>23.94754</v>
       </c>
       <c r="E136" t="n">
-        <v>23.94754</v>
+        <v>355.85996</v>
       </c>
       <c r="F136" t="n">
-        <v>355.85996</v>
+        <v>0.00066772097</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4672,13 +4717,13 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>4.324850889186436</v>
+        <v>24.82088733333334</v>
       </c>
       <c r="E137" t="n">
-        <v>24.82088733333334</v>
+        <v>366.77249</v>
       </c>
       <c r="F137" t="n">
-        <v>366.77249</v>
+        <v>0.0006920722</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -4703,13 +4748,13 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>4.18183574859918</v>
+        <v>23.77793533333333</v>
       </c>
       <c r="E138" t="n">
-        <v>23.77793533333333</v>
+        <v>350.07658</v>
       </c>
       <c r="F138" t="n">
-        <v>350.07658</v>
+        <v>0.00066299193</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4734,13 +4779,13 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>24.16444985596154</v>
+        <v>11.49915533333333</v>
       </c>
       <c r="E139" t="n">
-        <v>11.49915533333333</v>
+        <v>214.1629</v>
       </c>
       <c r="F139" t="n">
-        <v>214.1629</v>
+        <v>0.00032062696</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4765,13 +4810,13 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>10.56099806884067</v>
+        <v>9.485888666666668</v>
       </c>
       <c r="E140" t="n">
-        <v>9.485888666666668</v>
+        <v>134.97303</v>
       </c>
       <c r="F140" t="n">
-        <v>134.97303</v>
+        <v>0.00026449174</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -4796,13 +4841,13 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>20.07814940376975</v>
+        <v>10.07873266666667</v>
       </c>
       <c r="E141" t="n">
-        <v>10.07873266666667</v>
+        <v>180.33996</v>
       </c>
       <c r="F141" t="n">
-        <v>180.33996</v>
+        <v>0.00028102182</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4827,13 +4872,13 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>25.31882851538459</v>
+        <v>11.086986</v>
       </c>
       <c r="E142" t="n">
-        <v>11.086986</v>
+        <v>212.48668</v>
       </c>
       <c r="F142" t="n">
-        <v>212.48668</v>
+        <v>0.00030913459</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4858,13 +4903,13 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>11.86695514622094</v>
+        <v>8.282163333333335</v>
       </c>
       <c r="E143" t="n">
-        <v>8.282163333333335</v>
+        <v>121.78768</v>
       </c>
       <c r="F143" t="n">
-        <v>121.78768</v>
+        <v>0.00023092868</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4889,13 +4934,13 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>21.65324102605981</v>
+        <v>13.71599266666667</v>
       </c>
       <c r="E144" t="n">
-        <v>13.71599266666667</v>
+        <v>184.81033</v>
       </c>
       <c r="F144" t="n">
-        <v>184.81033</v>
+        <v>0.00038243826</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4920,13 +4965,13 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>25.97535055548497</v>
+        <v>18.26592466666667</v>
       </c>
       <c r="E145" t="n">
-        <v>18.26592466666667</v>
+        <v>183.45407</v>
       </c>
       <c r="F145" t="n">
-        <v>183.45407</v>
+        <v>0.00050930244</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4951,13 +4996,13 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>21.17544595249581</v>
+        <v>14.088858</v>
       </c>
       <c r="E146" t="n">
-        <v>14.088858</v>
+        <v>188.28705</v>
       </c>
       <c r="F146" t="n">
-        <v>188.28705</v>
+        <v>0.00039283474</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -4982,13 +5027,13 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>19.27624546684817</v>
+        <v>10.57226933333333</v>
       </c>
       <c r="E147" t="n">
-        <v>10.57226933333333</v>
+        <v>189.99296</v>
       </c>
       <c r="F147" t="n">
-        <v>189.99296</v>
+        <v>0.00029478291</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5013,13 +5058,13 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>18.06173076432181</v>
+        <v>8.714413333333333</v>
       </c>
       <c r="E148" t="n">
-        <v>8.714413333333333</v>
+        <v>162.41603</v>
       </c>
       <c r="F148" t="n">
-        <v>162.41603</v>
+        <v>0.00024298097</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5044,13 +5089,13 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>13.08589619719754</v>
+        <v>7.443728</v>
       </c>
       <c r="E149" t="n">
-        <v>7.443728</v>
+        <v>126.51838</v>
       </c>
       <c r="F149" t="n">
-        <v>126.51838</v>
+        <v>0.00020755089</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5075,13 +5120,13 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>35.91027700315662</v>
+        <v>13.483894</v>
       </c>
       <c r="E150" t="n">
-        <v>13.483894</v>
+        <v>167.47214</v>
       </c>
       <c r="F150" t="n">
-        <v>167.47214</v>
+        <v>0.00037596674</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5106,13 +5151,13 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>22.30221264906656</v>
+        <v>10.09811</v>
       </c>
       <c r="E151" t="n">
-        <v>10.09811</v>
+        <v>173.77009</v>
       </c>
       <c r="F151" t="n">
-        <v>173.77009</v>
+        <v>0.00028156209</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5137,13 +5182,13 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>21.645548205318</v>
+        <v>36.04956533333333</v>
       </c>
       <c r="E152" t="n">
-        <v>36.04956533333333</v>
+        <v>526.6326</v>
       </c>
       <c r="F152" t="n">
-        <v>526.6326</v>
+        <v>0.0010051575</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5168,13 +5213,13 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>21.8614602436978</v>
+        <v>35.83358666666667</v>
       </c>
       <c r="E153" t="n">
-        <v>35.83358666666667</v>
+        <v>528.46667</v>
       </c>
       <c r="F153" t="n">
-        <v>528.46667</v>
+        <v>0.00099913548</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5199,13 +5244,13 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>23.74060503674074</v>
+        <v>34.399242</v>
       </c>
       <c r="E154" t="n">
-        <v>34.399242</v>
+        <v>500.07364</v>
       </c>
       <c r="F154" t="n">
-        <v>500.07364</v>
+        <v>0.00095914213</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5230,13 +5275,13 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2.42608915853304</v>
+        <v>4.495870133333334</v>
       </c>
       <c r="E155" t="n">
-        <v>4.495870133333334</v>
+        <v>83.771835</v>
       </c>
       <c r="F155" t="n">
-        <v>83.771835</v>
+        <v>0.00012535679</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5261,13 +5306,13 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2.34730347547578</v>
+        <v>4.440957133333334</v>
       </c>
       <c r="E156" t="n">
-        <v>4.440957133333334</v>
+        <v>82.85351300000001</v>
       </c>
       <c r="F156" t="n">
-        <v>82.85351300000001</v>
+        <v>0.00012382567</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5292,13 +5337,13 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2.37416228121184</v>
+        <v>4.459677466666666</v>
       </c>
       <c r="E157" t="n">
-        <v>4.459677466666666</v>
+        <v>83.166577</v>
       </c>
       <c r="F157" t="n">
-        <v>83.166577</v>
+        <v>0.00012434764</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5323,13 +5368,13 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2.50737017190958</v>
+        <v>4.501977200000001</v>
       </c>
       <c r="E158" t="n">
-        <v>4.501977200000001</v>
+        <v>85.364631</v>
       </c>
       <c r="F158" t="n">
-        <v>85.364631</v>
+        <v>0.00012552707</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5354,13 +5399,13 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2.33632314253954</v>
+        <v>5.0251234</v>
       </c>
       <c r="E159" t="n">
-        <v>5.0251234</v>
+        <v>84.14837</v>
       </c>
       <c r="F159" t="n">
-        <v>84.14837</v>
+        <v>0.00014011377</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5385,13 +5430,13 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1.467064962386103</v>
+        <v>7.111703333333334</v>
       </c>
       <c r="E160" t="n">
-        <v>7.111703333333334</v>
+        <v>114.06269</v>
       </c>
       <c r="F160" t="n">
-        <v>114.06269</v>
+        <v>0.00019829315</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5416,13 +5461,13 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>83.37022662801051</v>
+        <v>18.30489266666667</v>
       </c>
       <c r="E161" t="n">
-        <v>18.30489266666667</v>
+        <v>237.68303</v>
       </c>
       <c r="F161" t="n">
-        <v>237.68303</v>
+        <v>0.00051038897</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5447,13 +5492,13 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>4.907782346156525</v>
+        <v>4.686698866666667</v>
       </c>
       <c r="E162" t="n">
-        <v>4.686698866666667</v>
+        <v>79.97873</v>
       </c>
       <c r="F162" t="n">
-        <v>79.97873</v>
+        <v>0.0001306776</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5478,13 +5523,13 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>109.2087192164495</v>
+        <v>21.43328066666667</v>
       </c>
       <c r="E163" t="n">
-        <v>21.43328066666667</v>
+        <v>271.371</v>
       </c>
       <c r="F163" t="n">
-        <v>271.371</v>
+        <v>0.00059761673</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5509,13 +5554,13 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>6.220786889025998</v>
+        <v>4.844162133333334</v>
       </c>
       <c r="E164" t="n">
-        <v>4.844162133333334</v>
+        <v>81.67630699999999</v>
       </c>
       <c r="F164" t="n">
-        <v>81.67630699999999</v>
+        <v>0.00013506809</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5540,13 +5585,13 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>89.33859756769698</v>
+        <v>72.47620666666667</v>
       </c>
       <c r="E165" t="n">
-        <v>72.47620666666667</v>
+        <v>737.8440000000001</v>
       </c>
       <c r="F165" t="n">
-        <v>737.8440000000001</v>
+        <v>0.0020208289</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -5571,13 +5616,13 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1.588764143881468</v>
+        <v>7.673719333333334</v>
       </c>
       <c r="E166" t="n">
-        <v>7.673719333333334</v>
+        <v>119.42972</v>
       </c>
       <c r="F166" t="n">
-        <v>119.42972</v>
+        <v>0.00021396365</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -5587,5 +5632,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>